--- a/Reports/Result_summary.xlsx
+++ b/Reports/Result_summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A1B84B-BBDB-4388-AF95-E22FC3525853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD264403-5355-4B07-9C07-F1686B439734}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OneVsRest" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="47">
   <si>
     <t>Vectorizer</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>GridSearchCV ngram [(1,1) (1,2)], min_df (1,2), max_df (0.25,0.5), C (1, 10, 100)</t>
+  </si>
+  <si>
+    <t>num_classes = 1505, GridSearchCV: ngram (1, 1), (1, 2), max_df (0.25, 0.5, 0.75), alpha (0.01, 0.1, 1, 10), min_df (1, 2, 5)</t>
   </si>
 </sst>
 </file>
@@ -339,15 +342,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -379,7 +374,15 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -454,20 +457,20 @@
     <tableColumn id="4" xr3:uid="{B31B8984-385C-4C26-B204-F7138AE0669C}" name="max_df" dataDxfId="20"/>
     <tableColumn id="5" xr3:uid="{9F76C1C2-8FF4-4597-9499-42B8A176C10C}" name="Classifier" dataDxfId="19"/>
     <tableColumn id="6" xr3:uid="{36AC6A36-255D-44A3-90C2-2CBE5376D413}" name="alpha" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{F7F69A4E-2BA1-47BB-9C77-9F953641046D}" name="C" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{DBF08B28-E21C-46C3-80A1-056DBE8EFBC2}" name="class_weight" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{C035D5A5-90DC-4F96-B97A-6784D1ECCC77}" name="Precision" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{ABCFA034-480C-4EFB-884C-158506438CF5}" name="Recall" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{8B63DFF9-7F38-4E87-8AF6-441F7F9D4D1B}" name="F1 Score" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{68A2F60D-448D-4D68-B32C-BA1893E2D027}" name="Notes/Algo Details" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{F7F69A4E-2BA1-47BB-9C77-9F953641046D}" name="C" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{DBF08B28-E21C-46C3-80A1-056DBE8EFBC2}" name="class_weight" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{C035D5A5-90DC-4F96-B97A-6784D1ECCC77}" name="Precision" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{ABCFA034-480C-4EFB-884C-158506438CF5}" name="Recall" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{8B63DFF9-7F38-4E87-8AF6-441F7F9D4D1B}" name="F1 Score" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{68A2F60D-448D-4D68-B32C-BA1893E2D027}" name="Notes/Algo Details" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B0381668-AD1E-4DF7-8317-15E420BF0925}" name="Table13" displayName="Table13" ref="B3:M45" totalsRowShown="0">
-  <autoFilter ref="B3:M45" xr:uid="{AB9558FD-CEC3-492B-B394-A81961453C24}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B0381668-AD1E-4DF7-8317-15E420BF0925}" name="Table13" displayName="Table13" ref="B3:M57" totalsRowShown="0">
+  <autoFilter ref="B3:M57" xr:uid="{AB9558FD-CEC3-492B-B394-A81961453C24}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{F2E071F1-BF7D-473E-8131-654441571594}" name="Vectorizer" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{0E8E319B-EEE3-4716-82AF-A767BC621706}" name="ngram" dataDxfId="10"/>
@@ -751,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,10 +1584,10 @@
         <v>43</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="1">
         <v>0.5</v>
@@ -1597,6 +1600,15 @@
       </c>
       <c r="I33" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0.72</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>45</v>
@@ -1707,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498DBC24-B90E-420D-ADE2-FBA91359CA2D}">
-  <dimension ref="B2:M51"/>
+  <dimension ref="B2:M63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,109 +1929,88 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H10" s="2">
         <v>100</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="3">
         <v>0.87</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K10" s="3">
         <v>0.6</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L10" s="3">
         <v>0.69</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D11" s="5">
         <v>2</v>
       </c>
-      <c r="E10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="6" t="s">
+      <c r="E11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6">
         <v>10</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J11" s="7">
         <v>0.86</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K11" s="7">
         <v>0.61</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L11" s="7">
         <v>0.7</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="2">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="L11" s="3">
-        <v>0.68</v>
-      </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2040,227 +2031,414 @@
         <v>26</v>
       </c>
       <c r="H12" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="J12" s="3">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="K12" s="3">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="L12" s="3">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J16" s="7">
         <v>0.81</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K16" s="7">
         <v>0.76</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L16" s="7">
         <v>0.79</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H17" s="2">
         <v>0.1</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J17" s="3">
         <v>0.76</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K17" s="3">
         <v>0.78</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L17" s="3">
         <v>0.77</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
         <v>0.75</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="2">
-        <v>1</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J18" s="3">
         <v>0.81</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K18" s="3">
         <v>0.76</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L18" s="3">
         <v>0.79</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="G19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1">
         <v>2</v>
       </c>
-      <c r="E20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="2">
-        <v>50</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="2">
+        <v>10</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5">
+        <v>2</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0.52</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0.87</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0.49</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
@@ -2285,12 +2463,44 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
+      <c r="G31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="2">
+        <v>50</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
@@ -2304,12 +2514,6 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2405,6 +2609,78 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Reports/Result_summary.xlsx
+++ b/Reports/Result_summary.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD264403-5355-4B07-9C07-F1686B439734}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D99EECA-8534-459A-A262-07EE9C973567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OneVsRest" sheetId="1" r:id="rId1"/>
-    <sheet name="Multi-Class Transformation" sheetId="4" r:id="rId2"/>
+    <sheet name="BinaryRelevance" sheetId="1" r:id="rId1"/>
+    <sheet name="LabelPowerset" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1722,7 @@
   <dimension ref="B2:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Reports/Result_summary.xlsx
+++ b/Reports/Result_summary.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D99EECA-8534-459A-A262-07EE9C973567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8DED23-8B5E-49C3-A601-B0F5A222FE20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BinaryRelevance" sheetId="1" r:id="rId1"/>
     <sheet name="LabelPowerset" sheetId="4" r:id="rId2"/>
+    <sheet name="SentenceEmbedding" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="68">
   <si>
     <t>Vectorizer</t>
   </si>
@@ -167,6 +168,69 @@
   </si>
   <si>
     <t>num_classes = 1505, GridSearchCV: ngram (1, 1), (1, 2), max_df (0.25, 0.5, 0.75), alpha (0.01, 0.1, 1, 10), min_df (1, 2, 5)</t>
+  </si>
+  <si>
+    <t>Encoder</t>
+  </si>
+  <si>
+    <t>Sentence Embedding</t>
+  </si>
+  <si>
+    <t>Predictor</t>
+  </si>
+  <si>
+    <t>Cosine Similarity</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>Multi-class</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Multi-Class/Multi-Label?</t>
+  </si>
+  <si>
+    <t>epoch = 20, batch_size = 128, validation_split = 0.3, dense_layer = 1024, dropout = 0.5, output_layer = 1505 classes + softmax</t>
+  </si>
+  <si>
+    <t>RMSProp</t>
+  </si>
+  <si>
+    <t>Adagrad</t>
+  </si>
+  <si>
+    <t>Adadelta</t>
+  </si>
+  <si>
+    <t>Multi-label</t>
+  </si>
+  <si>
+    <t>epoch = 20, batch_size = 128, validation_split = 0.3, dense_layer = 800, dropout = 0.25, output_layer = 17 genres + sigmoid</t>
+  </si>
+  <si>
+    <t>Vector Size</t>
+  </si>
+  <si>
+    <t>(512,1)</t>
   </si>
 </sst>
 </file>
@@ -241,7 +305,103 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -451,18 +611,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8A7FC130-1D6E-42DA-9C69-91EC5BC22CA6}" name="Table1" displayName="Table1" ref="B3:M39" totalsRowShown="0">
   <autoFilter ref="B3:M39" xr:uid="{AB9558FD-CEC3-492B-B394-A81961453C24}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{C0DD81CA-37A1-49B2-821F-E2E3C9EA0710}" name="Vectorizer" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{F88F1517-1A0D-45B3-A4DE-A6D1CCB3ACF3}" name="ngram" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{7D7830D4-9DCE-4C53-B386-A7E1F83EA77C}" name="min_df" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{B31B8984-385C-4C26-B204-F7138AE0669C}" name="max_df" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{9F76C1C2-8FF4-4597-9499-42B8A176C10C}" name="Classifier" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{36AC6A36-255D-44A3-90C2-2CBE5376D413}" name="alpha" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{F7F69A4E-2BA1-47BB-9C77-9F953641046D}" name="C" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{DBF08B28-E21C-46C3-80A1-056DBE8EFBC2}" name="class_weight" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{C035D5A5-90DC-4F96-B97A-6784D1ECCC77}" name="Precision" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{ABCFA034-480C-4EFB-884C-158506438CF5}" name="Recall" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{8B63DFF9-7F38-4E87-8AF6-441F7F9D4D1B}" name="F1 Score" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{68A2F60D-448D-4D68-B32C-BA1893E2D027}" name="Notes/Algo Details" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{C0DD81CA-37A1-49B2-821F-E2E3C9EA0710}" name="Vectorizer" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{F88F1517-1A0D-45B3-A4DE-A6D1CCB3ACF3}" name="ngram" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{7D7830D4-9DCE-4C53-B386-A7E1F83EA77C}" name="min_df" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{B31B8984-385C-4C26-B204-F7138AE0669C}" name="max_df" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{9F76C1C2-8FF4-4597-9499-42B8A176C10C}" name="Classifier" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{36AC6A36-255D-44A3-90C2-2CBE5376D413}" name="alpha" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{F7F69A4E-2BA1-47BB-9C77-9F953641046D}" name="C" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{DBF08B28-E21C-46C3-80A1-056DBE8EFBC2}" name="class_weight" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{C035D5A5-90DC-4F96-B97A-6784D1ECCC77}" name="Precision" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{ABCFA034-480C-4EFB-884C-158506438CF5}" name="Recall" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{8B63DFF9-7F38-4E87-8AF6-441F7F9D4D1B}" name="F1 Score" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{68A2F60D-448D-4D68-B32C-BA1893E2D027}" name="Notes/Algo Details" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -472,18 +632,39 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B0381668-AD1E-4DF7-8317-15E420BF0925}" name="Table13" displayName="Table13" ref="B3:M57" totalsRowShown="0">
   <autoFilter ref="B3:M57" xr:uid="{AB9558FD-CEC3-492B-B394-A81961453C24}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F2E071F1-BF7D-473E-8131-654441571594}" name="Vectorizer" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{0E8E319B-EEE3-4716-82AF-A767BC621706}" name="ngram" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{82BBE88B-4D81-46F2-88E9-E9EE34D01C04}" name="min_df" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{8DC4685F-2359-40E6-8AA7-A24DCC8B7627}" name="max_df" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{A4376165-3098-4003-9CBC-97198BC42F05}" name="Classifier" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{B8B8E049-9205-4038-AA32-FC1C91EC394C}" name="alpha" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{1C9FC2B0-4DC8-4A6E-99BD-CFFC9AD31C2D}" name="C" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{0616807D-3DE7-47E6-9C4A-9C44ED802343}" name="class_weight" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{7BE5ADAA-CFFF-46E2-B042-4A3303BE5FFA}" name="Precision" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{870FA84E-66E4-45F7-A091-4AFAC31AC404}" name="Recall" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{48A1823C-31F6-4A8F-8DDA-1B9CDE26639A}" name="F1 Score" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{795AD51F-8135-4D4B-9A5F-F831D84A450B}" name="Notes/Algo Details" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{F2E071F1-BF7D-473E-8131-654441571594}" name="Vectorizer" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{0E8E319B-EEE3-4716-82AF-A767BC621706}" name="ngram" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{82BBE88B-4D81-46F2-88E9-E9EE34D01C04}" name="min_df" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{8DC4685F-2359-40E6-8AA7-A24DCC8B7627}" name="max_df" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{A4376165-3098-4003-9CBC-97198BC42F05}" name="Classifier" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{B8B8E049-9205-4038-AA32-FC1C91EC394C}" name="alpha" dataDxfId="18"/>
+    <tableColumn id="11" xr3:uid="{1C9FC2B0-4DC8-4A6E-99BD-CFFC9AD31C2D}" name="C" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{0616807D-3DE7-47E6-9C4A-9C44ED802343}" name="class_weight" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{7BE5ADAA-CFFF-46E2-B042-4A3303BE5FFA}" name="Precision" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{870FA84E-66E4-45F7-A091-4AFAC31AC404}" name="Recall" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{48A1823C-31F6-4A8F-8DDA-1B9CDE26639A}" name="F1 Score" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{795AD51F-8135-4D4B-9A5F-F831D84A450B}" name="Notes/Algo Details" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{82897D60-DCF6-4699-A4A5-EB20E0B96686}" name="Table134" displayName="Table134" ref="B3:M57" totalsRowShown="0">
+  <autoFilter ref="B3:M57" xr:uid="{AB9558FD-CEC3-492B-B394-A81961453C24}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{0F0EE13C-C62A-4A8E-AB67-95B6611D8730}" name="Encoder" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{BDDBE8AC-362F-4CDC-B902-DE8F41C1273A}" name="Vector Size" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{7D7F57C5-0203-4C30-B013-EA66B9EA2830}" name="Column2" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{A6E88BA7-51A3-4E38-BDCB-0CA33E11F59B}" name="Column3" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D3C94CAA-43DA-4C2D-925D-B84964049F3D}" name="Classifier" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{A3C84CFB-345F-400D-9F6D-1545C9D5E0B2}" name="Optimizer" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{45030A76-2DFD-4BE6-A59F-23E23CAF0E36}" name="Multi-Class/Multi-Label?" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{FC4A2E2A-CBE9-48E5-8B7D-CAB35266C9C2}" name="Column6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{346FF460-45AC-4E4B-9DE0-D1FFFE0D9EE4}" name="Precision" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{C42C872C-C51B-4096-AA83-96729C8316B7}" name="Recall" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{6AA4219D-9A5F-4EF3-8A1F-E84E443BA622}" name="F1 Score" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{F616A393-96FC-4F3F-A84F-8E70D3C4E05D}" name="Notes/Algo Details" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -755,7 +936,7 @@
   <dimension ref="B2:M39"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33:L35"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498DBC24-B90E-420D-ADE2-FBA91359CA2D}">
   <dimension ref="B2:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,4 +2870,570 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86C7EBE-A6AC-4DEE-B401-DD8F77120376}">
+  <dimension ref="B2:M63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="9.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" style="2"/>
+    <col min="10" max="10" width="11.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="3"/>
+    <col min="12" max="12" width="10.42578125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="107.140625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7">
+        <v>0.77</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.54</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.44</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="G13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="H18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Reports/Result_summary.xlsx
+++ b/Reports/Result_summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8DED23-8B5E-49C3-A601-B0F5A222FE20}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924DC887-BE1E-4859-BFDC-A0B045FD0BE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BinaryRelevance" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="68">
   <si>
     <t>Vectorizer</t>
   </si>
@@ -254,7 +254,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +279,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -292,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -301,6 +307,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1902,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498DBC24-B90E-420D-ADE2-FBA91359CA2D}">
   <dimension ref="B2:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,38 +2083,38 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>2</v>
       </c>
-      <c r="E7" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6">
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
         <v>10</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="9">
         <v>0.85</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="9">
         <v>0.82</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="9">
         <v>0.83</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2876,7 +2884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86C7EBE-A6AC-4DEE-B401-DD8F77120376}">
   <dimension ref="B2:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/Reports/Result_summary.xlsx
+++ b/Reports/Result_summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924DC887-BE1E-4859-BFDC-A0B045FD0BE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7A0245-3BD4-43FA-A4A8-8E21FDB95EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BinaryRelevance" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="68">
   <si>
     <t>Vectorizer</t>
   </si>
@@ -194,9 +194,6 @@
     <t>Optimizer</t>
   </si>
   <si>
-    <t>Multi-class</t>
-  </si>
-  <si>
     <t>Neural Network</t>
   </si>
   <si>
@@ -221,9 +218,6 @@
     <t>Adadelta</t>
   </si>
   <si>
-    <t>Multi-label</t>
-  </si>
-  <si>
     <t>epoch = 20, batch_size = 128, validation_split = 0.3, dense_layer = 800, dropout = 0.25, output_layer = 17 genres + sigmoid</t>
   </si>
   <si>
@@ -231,6 +225,12 @@
   </si>
   <si>
     <t>(512,1)</t>
+  </si>
+  <si>
+    <t>Multi-class/label powerset</t>
+  </si>
+  <si>
+    <t>Multi-label/binary relevance</t>
   </si>
 </sst>
 </file>
@@ -943,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1910,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{498DBC24-B90E-420D-ADE2-FBA91359CA2D}">
   <dimension ref="B2:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2884,8 +2884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86C7EBE-A6AC-4DEE-B401-DD8F77120376}">
   <dimension ref="B2:M63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2918,7 +2918,7 @@
         <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>51</v>
@@ -2933,7 +2933,7 @@
         <v>54</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>53</v>
@@ -3002,21 +3002,21 @@
         <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
@@ -3026,7 +3026,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -3046,7 +3046,7 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J10" s="3">
         <v>0.74</v>
@@ -3064,7 +3064,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="G11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J11" s="3">
         <v>0.76</v>
@@ -3083,7 +3083,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="G12" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J12" s="3">
         <v>0.76</v>
@@ -3101,7 +3101,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="G13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="3">
         <v>0.75</v>
@@ -3138,13 +3138,13 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -3153,7 +3153,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="H18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="3">
         <v>0.64</v>

--- a/Reports/Result_summary.xlsx
+++ b/Reports/Result_summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7A0245-3BD4-43FA-A4A8-8E21FDB95EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A89DBB9-31E4-4495-8AA1-D1C45F2E68C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="5535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BinaryRelevance" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="68">
   <si>
     <t>Vectorizer</t>
   </si>
@@ -2885,7 +2885,7 @@
   <dimension ref="B2:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
